--- a/src/Backend/RawData/CompoundDrugs/compounders_ndc_directory.xlsx
+++ b/src/Backend/RawData/CompoundDrugs/compounders_ndc_directory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okohe\OneDrive\Desktop\DD\src\Backend\RawData\CompoundDrugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCAA20CE-0735-4381-937C-4BE005D18C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F378E819-0A01-4F50-BFF0-EA61A1DAF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="1092" windowWidth="28800" windowHeight="11388"/>
+    <workbookView xWindow="26490" yWindow="3660" windowWidth="28800" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="compounders_ndc_directory" sheetId="1" r:id="rId1"/>
